--- a/result_graph.xlsx
+++ b/result_graph.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\K_RRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5648EA-9BD7-4459-957A-51484F03E1F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{19E1E567-CA76-498E-8B4D-8AE438F118C1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Script_K" sheetId="1" r:id="rId1"/>
@@ -19,12 +18,14 @@
     <sheet name="g_fig_k" sheetId="4" r:id="rId4"/>
     <sheet name="fig_m" sheetId="6" r:id="rId5"/>
     <sheet name="g_fig_m" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fig_m!$A$1:$J$58</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">fig_k!$A$1:$J$61</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">fig_m!$A$1:$J$58</definedName>
+    <definedName name="figure_1" localSheetId="4">fig_m!$A$2:$J$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,18 +40,31 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E7A6701E-BCE8-4AA4-992E-802D936A9A96}" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="figure" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\user\Desktop\K_RRT\figure.txt" tab="0" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure]"/>
-  </connection>
-  <connection id="2" xr16:uid="{D9087D74-DE0B-4FAD-A743-F67A9D873D39}" keepAlive="1" name="Query - figure (2)" description="Connection to the 'figure (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [figure (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="77">
   <si>
     <t>lamda_i = 0.1lamda</t>
   </si>
@@ -316,112 +330,13 @@
     </r>
   </si>
   <si>
-    <t>0.9796</t>
-  </si>
-  <si>
-    <t>0.262947%</t>
-  </si>
-  <si>
-    <t>0.9615</t>
-  </si>
-  <si>
-    <t>0.190172%</t>
-  </si>
-  <si>
-    <t>0.9453</t>
-  </si>
-  <si>
-    <t>0.052574%</t>
-  </si>
-  <si>
-    <t>0.028871%</t>
-  </si>
-  <si>
-    <t>0.9170</t>
-  </si>
-  <si>
-    <t>0.191282%</t>
-  </si>
-  <si>
-    <t>0.130236%</t>
-  </si>
-  <si>
-    <t>0.8927</t>
-  </si>
-  <si>
-    <t>0.242025%</t>
-  </si>
-  <si>
-    <t>0.8817</t>
-  </si>
-  <si>
-    <t>0.387562%</t>
-  </si>
-  <si>
-    <t>0.8714</t>
-  </si>
-  <si>
-    <t>0.373491%</t>
-  </si>
-  <si>
-    <t>0.6232</t>
-  </si>
-  <si>
-    <t>0.245193%</t>
-  </si>
-  <si>
-    <t>0.4623</t>
-  </si>
-  <si>
-    <t>0.428658%</t>
-  </si>
-  <si>
-    <t>0.3711</t>
-  </si>
-  <si>
-    <t>1.512885%</t>
-  </si>
-  <si>
-    <t>0.119758%</t>
-  </si>
-  <si>
-    <t>0.2696</t>
-  </si>
-  <si>
-    <t>1.052037%</t>
-  </si>
-  <si>
-    <t>0.2382</t>
-  </si>
-  <si>
-    <t>0.800391%</t>
-  </si>
-  <si>
-    <t>0.2137</t>
-  </si>
-  <si>
-    <t>3.422661%</t>
-  </si>
-  <si>
-    <t>0.1941</t>
-  </si>
-  <si>
-    <t>1.274703%</t>
-  </si>
-  <si>
-    <t>0.1779</t>
-  </si>
-  <si>
-    <t>0.484285%</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -534,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -566,11 +481,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,12 +517,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,16 +533,25 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -629,16 +560,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,6 +620,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1138,6 +1061,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1244,6 +1168,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1324,6 +1249,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1355,6 +1281,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1362,7 +1289,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1437,6 +1363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1877,6 +1804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1982,6 +1910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2062,6 +1991,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2093,6 +2023,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2100,7 +2031,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2180,6 +2110,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2254,6 +2185,72 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>g_fig_m!$I$5:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>g_fig_m!$J$5:$J$23</c:f>
@@ -2261,61 +2258,61 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.6141209999999999</c:v>
+                  <c:v>3.5959120000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5860400000000001</c:v>
+                  <c:v>3.5968589999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6088840000000002</c:v>
+                  <c:v>3.6057380000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.599456</c:v>
+                  <c:v>3.6031900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.606033</c:v>
+                  <c:v>3.5885760000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5934780000000002</c:v>
+                  <c:v>3.6022780000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5969449999999998</c:v>
+                  <c:v>3.5976759999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6170939999999998</c:v>
+                  <c:v>3.6036419999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5841669999999999</c:v>
+                  <c:v>3.5859549999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5954329999999999</c:v>
+                  <c:v>3.606814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6022449999999999</c:v>
+                  <c:v>3.5881799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6047009999999999</c:v>
+                  <c:v>3.5972590000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5980340000000002</c:v>
+                  <c:v>3.597944</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6050930000000001</c:v>
+                  <c:v>3.6006140000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.592231</c:v>
+                  <c:v>3.581404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5847020000000001</c:v>
+                  <c:v>3.593054</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5936789999999998</c:v>
+                  <c:v>3.6043059999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.589264</c:v>
+                  <c:v>3.6038939999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6010499999999999</c:v>
+                  <c:v>3.5973009999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,6 +2363,72 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>g_fig_m!$I$5:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>g_fig_m!$K$5:$K$23</c:f>
@@ -2373,61 +2436,61 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.5885539999999998</c:v>
+                  <c:v>3.5929700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.575399</c:v>
+                  <c:v>3.5792570000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5647609999999998</c:v>
+                  <c:v>3.5756209999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.5582880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.558557</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5580639999999999</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5989610000000001</c:v>
+                  <c:v>3.5316749999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5305569999999999</c:v>
+                  <c:v>3.52915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5101960000000001</c:v>
+                  <c:v>3.52915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5186289999999998</c:v>
+                  <c:v>3.5341960000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.512699</c:v>
+                  <c:v>3.5104679999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5004430000000002</c:v>
+                  <c:v>3.5132560000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4898669999999998</c:v>
+                  <c:v>3.499822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4941610000000001</c:v>
+                  <c:v>3.477614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4938470000000001</c:v>
+                  <c:v>3.4802200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4958979999999999</c:v>
+                  <c:v>3.4866389999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4719600000000002</c:v>
+                  <c:v>3.4763890000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4788420000000002</c:v>
+                  <c:v>3.4831120000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.466316</c:v>
+                  <c:v>3.4646889999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4601139999999999</c:v>
+                  <c:v>3.4458790000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,6 +2541,72 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>g_fig_m!$I$5:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>g_fig_m!$L$5:$L$23</c:f>
@@ -2485,61 +2614,61 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.2737449999999999</c:v>
+                  <c:v>3.2709350000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0884239999999998</c:v>
+                  <c:v>3.0957949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.982672</c:v>
+                  <c:v>2.9807769999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.888744</c:v>
+                  <c:v>2.893049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8260640000000001</c:v>
+                  <c:v>2.8165149999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7723309999999999</c:v>
+                  <c:v>2.772608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7235839999999998</c:v>
+                  <c:v>2.724253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.682585</c:v>
+                  <c:v>2.6833469999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.645486</c:v>
+                  <c:v>2.6461039999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6091350000000002</c:v>
+                  <c:v>2.615389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.578157</c:v>
+                  <c:v>2.587974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5588769999999998</c:v>
+                  <c:v>2.5569109999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5364879999999999</c:v>
+                  <c:v>2.5362390000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5171169999999998</c:v>
+                  <c:v>2.5121540000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4883739999999999</c:v>
+                  <c:v>2.4974729999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4753919999999998</c:v>
+                  <c:v>2.47506</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.459457</c:v>
+                  <c:v>2.4562949999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4432670000000001</c:v>
+                  <c:v>2.443708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.431292</c:v>
+                  <c:v>2.4263020000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,6 +2740,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2640,6 +2770,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2716,6 +2847,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2796,6 +2928,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2827,6 +2960,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2834,7 +2968,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2914,6 +3047,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3113,61 +3247,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97699999999999998</c:v>
+                  <c:v>0.97770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9597</c:v>
+                  <c:v>0.9617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94579999999999997</c:v>
+                  <c:v>0.93889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.93079999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91520000000000001</c:v>
+                  <c:v>0.91459999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97829999999999995</c:v>
+                  <c:v>0.90749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89049999999999996</c:v>
+                  <c:v>0.89670000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8851</c:v>
+                  <c:v>0.87980000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86809999999999998</c:v>
+                  <c:v>0.86250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86319999999999997</c:v>
+                  <c:v>0.86019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85460000000000003</c:v>
+                  <c:v>0.84809999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84119999999999995</c:v>
+                  <c:v>0.84430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83260000000000001</c:v>
+                  <c:v>0.83189999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82330000000000003</c:v>
+                  <c:v>0.82489999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81940000000000002</c:v>
+                  <c:v>0.82350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81079999999999997</c:v>
+                  <c:v>0.81310000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80930000000000002</c:v>
+                  <c:v>0.80369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79890000000000005</c:v>
+                  <c:v>0.79610000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79420000000000002</c:v>
+                  <c:v>0.7893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,61 +3362,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62470000000000003</c:v>
+                  <c:v>0.62450000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46429999999999999</c:v>
+                  <c:v>0.46610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37669999999999998</c:v>
+                  <c:v>0.36720000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31130000000000002</c:v>
+                  <c:v>0.30859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26679999999999998</c:v>
+                  <c:v>0.26960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24010000000000001</c:v>
+                  <c:v>0.24340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2064</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19159999999999999</c:v>
+                  <c:v>0.19850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17879999999999999</c:v>
+                  <c:v>0.18809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16839999999999999</c:v>
+                  <c:v>0.1636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15290000000000001</c:v>
+                  <c:v>0.1535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14080000000000001</c:v>
+                  <c:v>0.14230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0.14030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1203</c:v>
+                  <c:v>0.1236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11940000000000001</c:v>
+                  <c:v>0.12429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11609999999999999</c:v>
+                  <c:v>0.1153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1157</c:v>
+                  <c:v>0.1115</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.1017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1004</c:v>
+                  <c:v>0.1032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,6 +3488,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3460,6 +3595,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3540,6 +3676,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3571,6 +3708,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3578,7 +3716,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6012,7 +6149,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C13C6BF3-48E3-447F-A584-453DCCA0B8AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="10">
       <queryTableField id="1" name="Column1" tableColumnId="11"/>
@@ -6031,57 +6168,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{59991E9B-2A47-4491-9546-F48201E7AA52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11">
-    <queryTableFields count="10">
-      <queryTableField id="1" name="Column1" tableColumnId="11"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
-      <queryTableField id="8" name="Column8" tableColumnId="8"/>
-      <queryTableField id="9" name="Column9" tableColumnId="9"/>
-      <queryTableField id="10" name="Column10" tableColumnId="10"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="figure_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E872286-F114-4936-81A0-2C1D906A4EF0}" name="figure" displayName="figure" ref="A1:J61" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J61" xr:uid="{C00FDA39-91E7-47E8-9BB9-1C6EB79E8F1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="figure" displayName="figure" ref="A1:J61" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J61"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{56229CAD-2E71-4DE9-ADB2-6F71F2FD83E3}" uniqueName="11" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{48136444-DD89-4260-8496-D2E3F1BE2549}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{46238930-D361-4A21-806E-6C159C8263DB}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00E8012C-23FF-4559-98CF-BB4542F17842}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{EC12E5CC-73AC-4681-AA24-00C191D2B185}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{1535F8F3-ACFD-404F-9725-58D746F758CB}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{FB796E5F-DAB4-4C83-815C-22A84041B64A}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C71C4BDB-F47B-4BDC-801C-F6506B92B239}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{C87F94BA-E98E-43EE-A8AC-04C1007C14D7}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A1B85195-39E7-4457-B664-C5FF9B4113EF}" uniqueName="10" name="Etl" queryTableFieldId="10" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DBB88E0-AB47-46AC-A2E4-D513091E7266}" name="figure__2" displayName="figure__2" ref="A1:J58" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J58" xr:uid="{083CAA38-54AB-4762-9AE0-56572FC536FB}"/>
-  <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{15EE3749-DBCB-4901-A92F-33ED4FF5886C}" uniqueName="11" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7273E09A-BDF3-4578-8E62-83F42518A668}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{0FBDB86C-D1F4-4A7B-9D83-41B8E53BD0A4}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{ADE7474C-2277-487E-8E97-F8C89473D5B5}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{20B17A58-514B-4B1D-AC71-13F802CD367E}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{7F90EA98-29A1-46B8-943E-A54B974BD117}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{07A56801-59DF-4A76-B537-7EC534C5FA3E}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6186CD84-798E-495B-BDA3-8B499EF3E831}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B2891FFB-BB16-42A9-B4FF-FAF0EEEF4A64}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{BD261428-42C9-4A7B-B1DB-22B3108207BC}" uniqueName="10" name="Etl" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="11" uniqueName="11" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" uniqueName="10" name="Etl" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6383,31 +6486,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9853D92-7CEC-4B27-AE15-CF45A3D4BD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="4" width="6.21875" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6459,7 +6561,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6511,7 +6613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6563,7 +6665,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6615,7 +6717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6667,7 +6769,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6719,7 +6821,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6771,7 +6873,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6823,7 +6925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6875,7 +6977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6927,7 +7029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +7081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -7031,7 +7133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7083,7 +7185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -7135,7 +7237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -7187,7 +7289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -7239,7 +7341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -7291,7 +7393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -7343,7 +7445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -7395,7 +7497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -7447,12 +7549,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7504,7 +7606,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -7556,7 +7658,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -7608,7 +7710,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -7660,7 +7762,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -7712,7 +7814,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -7764,7 +7866,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -7816,7 +7918,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -7868,7 +7970,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -7920,7 +8022,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -7972,7 +8074,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -8024,7 +8126,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -8076,7 +8178,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -8128,7 +8230,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -8180,7 +8282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8334,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -8284,7 +8386,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -8336,7 +8438,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -8388,7 +8490,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -8440,7 +8542,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -8492,12 +8594,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -8549,7 +8651,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -8601,7 +8703,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -8653,7 +8755,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -8705,7 +8807,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8859,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -8809,7 +8911,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -8861,7 +8963,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +9015,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -8965,7 +9067,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -9017,7 +9119,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -9069,7 +9171,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -9121,7 +9223,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -9173,7 +9275,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -9225,7 +9327,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -9277,7 +9379,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -9329,7 +9431,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -9381,7 +9483,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -9433,7 +9535,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -9485,7 +9587,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -9544,62 +9646,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA07D38-1955-4ED5-827F-7506BE03744E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR60" sqref="A1:AR60"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" customWidth="1"/>
-    <col min="10" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="4.21875" customWidth="1"/>
-    <col min="17" max="18" width="4.5546875" customWidth="1"/>
-    <col min="19" max="20" width="5.33203125" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" customWidth="1"/>
-    <col min="29" max="29" width="4.109375" customWidth="1"/>
-    <col min="30" max="30" width="3.88671875" customWidth="1"/>
-    <col min="31" max="32" width="4.33203125" customWidth="1"/>
-    <col min="33" max="33" width="4.44140625" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" customWidth="1"/>
-    <col min="35" max="35" width="5.33203125" customWidth="1"/>
-    <col min="36" max="36" width="5.109375" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
-    <col min="38" max="38" width="4.88671875" customWidth="1"/>
-    <col min="39" max="39" width="4.44140625" customWidth="1"/>
-    <col min="40" max="40" width="5.109375" customWidth="1"/>
-    <col min="41" max="41" width="4.109375" customWidth="1"/>
-    <col min="42" max="42" width="4.44140625" customWidth="1"/>
-    <col min="43" max="43" width="4.5546875" customWidth="1"/>
-    <col min="44" max="44" width="4.21875" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" customWidth="1"/>
+    <col min="31" max="32" width="4.28515625" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" customWidth="1"/>
+    <col min="40" max="40" width="5.140625" customWidth="1"/>
+    <col min="41" max="41" width="4.140625" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" customWidth="1"/>
+    <col min="44" max="44" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -9626,7 +9728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9660,7 +9762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9701,7 +9803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9749,7 +9851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9804,7 +9906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9866,7 +9968,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -9935,7 +10037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9983,7 +10085,7 @@
         <v>0.5</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:V10" si="1">$N9*0.1</f>
+        <f t="shared" ref="P9:V9" si="1">$N9*0.1</f>
         <v>0.5</v>
       </c>
       <c r="Q9">
@@ -10011,7 +10113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -10184,7 +10286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -10281,7 +10383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -10385,7 +10487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -10496,7 +10598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -10614,7 +10716,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -10739,7 +10841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -10871,7 +10973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -11010,7 +11112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -11156,7 +11258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -11309,12 +11411,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -11341,7 +11443,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -11375,7 +11477,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -11416,7 +11518,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -11464,7 +11566,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -11519,7 +11621,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -11561,27 +11663,27 @@
         <v>2.5</v>
       </c>
       <c r="N27">
-        <f>L27*0.1</f>
-        <v>0.5</v>
+        <f t="shared" ref="N27:R27" si="16">$L27*0.5</f>
+        <v>2.5</v>
       </c>
       <c r="O27">
-        <f>L27*0.1</f>
-        <v>0.5</v>
+        <f t="shared" si="16"/>
+        <v>2.5</v>
       </c>
       <c r="P27">
-        <f>L27*0.1</f>
-        <v>0.5</v>
+        <f t="shared" si="16"/>
+        <v>2.5</v>
       </c>
       <c r="Q27">
-        <f>L27*0.1</f>
-        <v>0.5</v>
+        <f t="shared" si="16"/>
+        <v>2.5</v>
       </c>
       <c r="R27">
-        <f>L27*0.1</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -11626,31 +11728,31 @@
         <v>2.5</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:T28" si="16">$M28*0.5</f>
+        <f t="shared" ref="O28:T28" si="17">$M28*0.5</f>
         <v>2.5</v>
       </c>
       <c r="P28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="R28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="S28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="T28">
-        <f t="shared" si="16"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -11698,35 +11800,35 @@
         <v>2.5</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29:V29" si="17">$N29*0.5</f>
+        <f t="shared" ref="P29:V29" si="18">$N29*0.5</f>
         <v>2.5</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="R29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="S29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="T29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="U29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="V29">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -11777,39 +11879,39 @@
         <v>2.5</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:X30" si="18">$O30*0.5</f>
+        <f t="shared" ref="Q30:X30" si="19">$O30*0.5</f>
         <v>2.5</v>
       </c>
       <c r="R30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="S30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="T30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="U30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="V30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="W30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="X30">
-        <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -11863,43 +11965,43 @@
         <v>2.5</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31:Z31" si="19">$P31*0.5</f>
+        <f t="shared" ref="R31:Z31" si="20">$P31*0.5</f>
         <v>2.5</v>
       </c>
       <c r="S31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="T31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="U31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="V31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="W31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="X31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -11956,47 +12058,47 @@
         <v>2.5</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32:AB32" si="20">$Q32*0.5</f>
+        <f t="shared" ref="S32:AB32" si="21">$Q32*0.5</f>
         <v>2.5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="U32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="V32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="W32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="X32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -12056,51 +12158,51 @@
         <v>2.5</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="T33:AD33" si="21">$R33*0.5</f>
+        <f t="shared" ref="T33:AD33" si="22">$R33*0.5</f>
         <v>2.5</v>
       </c>
       <c r="U33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="V33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="W33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="X33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="21"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -12163,55 +12265,55 @@
         <v>2.5</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:AF34" si="22">$S34*0.5</f>
+        <f t="shared" ref="U34:AF34" si="23">$S34*0.5</f>
         <v>2.5</v>
       </c>
       <c r="V34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="W34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="X34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="22"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -12277,59 +12379,59 @@
         <v>2.5</v>
       </c>
       <c r="V35">
-        <f t="shared" ref="V35:AH35" si="23">$T35*0.5</f>
+        <f t="shared" ref="V35:AH35" si="24">$T35*0.5</f>
         <v>2.5</v>
       </c>
       <c r="W35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="X35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -12398,63 +12500,63 @@
         <v>2.5</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36:AJ36" si="24">$U36*0.5</f>
+        <f t="shared" ref="W36:AJ36" si="25">$U36*0.5</f>
         <v>2.5</v>
       </c>
       <c r="X36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="24"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -12526,67 +12628,67 @@
         <v>2.5</v>
       </c>
       <c r="X37">
-        <f t="shared" ref="X37:AL37" si="25">$V37*0.5</f>
+        <f t="shared" ref="X37:AL37" si="26">$V37*0.5</f>
         <v>2.5</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -12661,71 +12763,71 @@
         <v>2.5</v>
       </c>
       <c r="Y38">
-        <f t="shared" ref="Y38:AN38" si="26">$W38*0.5</f>
+        <f t="shared" ref="Y38:AN38" si="27">$W38*0.5</f>
         <v>2.5</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AM38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="26"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -12803,75 +12905,75 @@
         <v>2.5</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39:AP39" si="27">$X39*0.5</f>
+        <f t="shared" ref="Z39:AP39" si="28">$X39*0.5</f>
         <v>2.5</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AM39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="27"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -12952,84 +13054,84 @@
         <v>2.5</v>
       </c>
       <c r="AA40">
-        <f t="shared" ref="AA40:AR40" si="28">$Y40*0.5</f>
+        <f t="shared" ref="AA40:AR40" si="29">$Y40*0.5</f>
         <v>2.5</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AL40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AM40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AN40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AR40">
-        <f t="shared" si="28"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -13056,7 +13158,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -13090,7 +13192,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -13123,15 +13225,15 @@
         <v>4.5</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:L44" si="29">$I44*0.9</f>
+        <f t="shared" ref="K44:L44" si="30">$I44*0.9</f>
         <v>4.5</v>
       </c>
       <c r="L44">
-        <f t="shared" si="29"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="30"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -13167,19 +13269,19 @@
         <v>4.5</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:N45" si="30">$J45*0.9</f>
+        <f t="shared" ref="L45:N45" si="31">$J45*0.9</f>
         <v>4.5</v>
       </c>
       <c r="M45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.5</v>
       </c>
       <c r="N45">
-        <f t="shared" si="30"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="31"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -13218,23 +13320,23 @@
         <v>4.5</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:P46" si="31">$K46*0.9</f>
+        <f t="shared" ref="M46:P46" si="32">$K46*0.9</f>
         <v>4.5</v>
       </c>
       <c r="N46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="31"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -13276,27 +13378,27 @@
         <v>4.5</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47:R47" si="32">$L47*0.9</f>
+        <f t="shared" ref="N47:R47" si="33">$L47*0.9</f>
         <v>4.5</v>
       </c>
       <c r="O47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.5</v>
       </c>
       <c r="P47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.5</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.5</v>
       </c>
       <c r="R47">
-        <f t="shared" si="32"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="33"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -13341,31 +13443,31 @@
         <v>4.5</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:T48" si="33">$M48*0.9</f>
+        <f t="shared" ref="O48:T48" si="34">$M48*0.9</f>
         <v>4.5</v>
       </c>
       <c r="P48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="R48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="S48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="T48">
-        <f t="shared" si="33"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="34"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -13413,35 +13515,35 @@
         <v>4.5</v>
       </c>
       <c r="P49">
-        <f t="shared" ref="P49:V49" si="34">$N49*0.9</f>
+        <f t="shared" ref="P49:V49" si="35">$N49*0.9</f>
         <v>4.5</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="R49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="S49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="T49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="U49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5</v>
       </c>
       <c r="V49">
-        <f t="shared" si="34"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="35"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -13492,39 +13594,39 @@
         <v>4.5</v>
       </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:X50" si="35">$O50*0.9</f>
+        <f t="shared" ref="Q50:X50" si="36">$O50*0.9</f>
         <v>4.5</v>
       </c>
       <c r="R50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="S50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="T50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="U50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="V50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="W50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.5</v>
       </c>
       <c r="X50">
-        <f t="shared" si="35"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="36"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -13578,43 +13680,43 @@
         <v>4.5</v>
       </c>
       <c r="R51">
-        <f t="shared" ref="R51:Z51" si="36">$P51*0.9</f>
+        <f t="shared" ref="R51:Z51" si="37">$P51*0.9</f>
         <v>4.5</v>
       </c>
       <c r="S51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="T51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="U51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="V51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="W51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="X51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="36"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="37"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -13671,47 +13773,47 @@
         <v>4.5</v>
       </c>
       <c r="S52">
-        <f t="shared" ref="S52:AB52" si="37">$Q52*0.9</f>
+        <f t="shared" ref="S52:AB52" si="38">$Q52*0.9</f>
         <v>4.5</v>
       </c>
       <c r="T52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="U52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="V52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="W52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="X52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.5</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="37"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="38"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -13771,51 +13873,51 @@
         <v>4.5</v>
       </c>
       <c r="T53">
-        <f t="shared" ref="T53:AD53" si="38">$R53*0.9</f>
+        <f t="shared" ref="T53:AD53" si="39">$R53*0.9</f>
         <v>4.5</v>
       </c>
       <c r="U53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="V53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="W53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="X53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="38"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="39"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -13878,55 +13980,55 @@
         <v>4.5</v>
       </c>
       <c r="U54">
-        <f t="shared" ref="U54:AF54" si="39">$S54*0.9</f>
+        <f t="shared" ref="U54:AF54" si="40">$S54*0.9</f>
         <v>4.5</v>
       </c>
       <c r="V54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="W54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="X54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="39"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="40"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -13992,59 +14094,59 @@
         <v>4.5</v>
       </c>
       <c r="V55">
-        <f t="shared" ref="V55:AH55" si="40">$T55*0.9</f>
+        <f t="shared" ref="V55:AH55" si="41">$T55*0.9</f>
         <v>4.5</v>
       </c>
       <c r="W55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="X55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.5</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="40"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="41"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -14113,63 +14215,63 @@
         <v>4.5</v>
       </c>
       <c r="W56">
-        <f t="shared" ref="W56:AJ56" si="41">$U56*0.9</f>
+        <f t="shared" ref="W56:AJ56" si="42">$U56*0.9</f>
         <v>4.5</v>
       </c>
       <c r="X56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.5</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="41"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="42"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -14241,67 +14343,67 @@
         <v>4.5</v>
       </c>
       <c r="X57">
-        <f t="shared" ref="X57:AL57" si="42">$V57*0.9</f>
+        <f t="shared" ref="X57:AL57" si="43">$V57*0.9</f>
         <v>4.5</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AF57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AG57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AI57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AJ57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AK57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="AL57">
-        <f t="shared" si="42"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="43"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -14376,71 +14478,71 @@
         <v>4.5</v>
       </c>
       <c r="Y58">
-        <f t="shared" ref="Y58:AN58" si="43">$W58*0.9</f>
+        <f t="shared" ref="Y58:AN58" si="44">$W58*0.9</f>
         <v>4.5</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AF58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="43"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="44"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -14518,75 +14620,75 @@
         <v>4.5</v>
       </c>
       <c r="Z59">
-        <f t="shared" ref="Z59:AP59" si="44">$X59*0.9</f>
+        <f t="shared" ref="Z59:AP59" si="45">$X59*0.9</f>
         <v>4.5</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="44"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+        <f t="shared" si="45"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -14667,75 +14769,75 @@
         <v>4.5</v>
       </c>
       <c r="AA60">
-        <f t="shared" ref="AA60:AR60" si="45">$Y60*0.9</f>
+        <f t="shared" ref="AA60:AR60" si="46">$Y60*0.9</f>
         <v>4.5</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AK60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AL60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AM60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AN60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AO60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AP60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AQ60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="AR60">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
     </row>
@@ -14745,20 +14847,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77D8DF1-26F6-4EA1-B333-3BB2EFACD335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -14790,7 +14892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
@@ -14822,7 +14924,7 @@
         <v>0.58710399999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
@@ -14854,7 +14956,7 @@
         <v>1.204088</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10000</v>
       </c>
@@ -14886,7 +14988,7 @@
         <v>1.79878</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
@@ -14918,7 +15020,7 @@
         <v>2.4022760000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -14950,7 +15052,7 @@
         <v>3.0006930000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10000</v>
       </c>
@@ -14982,7 +15084,7 @@
         <v>3.586014</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10000</v>
       </c>
@@ -15014,7 +15116,7 @@
         <v>4.1823949999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10000</v>
       </c>
@@ -15046,7 +15148,7 @@
         <v>4.7914250000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10000</v>
       </c>
@@ -15078,7 +15180,7 @@
         <v>5.3936900000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10000</v>
       </c>
@@ -15110,7 +15212,7 @@
         <v>5.9583539999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10000</v>
       </c>
@@ -15142,7 +15244,7 @@
         <v>6.5963219999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10000</v>
       </c>
@@ -15174,7 +15276,7 @@
         <v>7.2054919999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10000</v>
       </c>
@@ -15206,7 +15308,7 @@
         <v>7.807874</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
@@ -15238,7 +15340,7 @@
         <v>8.4152780000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10000</v>
       </c>
@@ -15270,7 +15372,7 @@
         <v>9.0118089999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10000</v>
       </c>
@@ -15302,7 +15404,7 @@
         <v>9.6066109999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10000</v>
       </c>
@@ -15334,7 +15436,7 @@
         <v>10.216882</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10000</v>
       </c>
@@ -15366,7 +15468,7 @@
         <v>10.839684999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10000</v>
       </c>
@@ -15398,7 +15500,7 @@
         <v>11.415692</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -15430,7 +15532,7 @@
         <v>11.984963</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -15462,7 +15564,7 @@
         <v>0.419041</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -15494,7 +15596,7 @@
         <v>1.043628</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -15526,7 +15628,7 @@
         <v>1.6875249999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10000</v>
       </c>
@@ -15558,7 +15660,7 @@
         <v>2.310632</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -15590,7 +15692,7 @@
         <v>2.9343940000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000</v>
       </c>
@@ -15622,7 +15724,7 @@
         <v>3.5569980000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -15654,7 +15756,7 @@
         <v>4.170604</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -15686,7 +15788,7 @@
         <v>4.7672800000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -15718,7 +15820,7 @@
         <v>5.3842809999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10000</v>
       </c>
@@ -15750,7 +15852,7 @@
         <v>5.9853170000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -15782,7 +15884,7 @@
         <v>6.5918619999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10000</v>
       </c>
@@ -15814,7 +15916,7 @@
         <v>7.2187789999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10000</v>
       </c>
@@ -15846,7 +15948,7 @@
         <v>7.8073600000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -15878,7 +15980,7 @@
         <v>8.3982170000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -15910,7 +16012,7 @@
         <v>8.9992769999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10000</v>
       </c>
@@ -15942,7 +16044,7 @@
         <v>9.6248430000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10000</v>
       </c>
@@ -15974,7 +16076,7 @@
         <v>10.209322</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10000</v>
       </c>
@@ -16006,7 +16108,7 @@
         <v>10.801453</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10000</v>
       </c>
@@ -16038,7 +16140,7 @@
         <v>11.404491999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10000</v>
       </c>
@@ -16070,7 +16172,7 @@
         <v>12.025180000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10000</v>
       </c>
@@ -16102,7 +16204,7 @@
         <v>0.284555</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -16134,7 +16236,7 @@
         <v>0.75087499999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10000</v>
       </c>
@@ -16166,7 +16268,7 @@
         <v>1.263566</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10000</v>
       </c>
@@ -16198,7 +16300,7 @@
         <v>1.7908919999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10000</v>
       </c>
@@ -16230,7 +16332,7 @@
         <v>2.336138</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10000</v>
       </c>
@@ -16262,7 +16364,7 @@
         <v>2.8863910000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10000</v>
       </c>
@@ -16294,7 +16396,7 @@
         <v>3.4513250000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10000</v>
       </c>
@@ -16326,7 +16428,7 @@
         <v>4.0097829999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10000</v>
       </c>
@@ -16358,7 +16460,7 @@
         <v>4.5923879999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -16390,7 +16492,7 @@
         <v>5.168812</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10000</v>
       </c>
@@ -16422,7 +16524,7 @@
         <v>5.7352319999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10000</v>
       </c>
@@ -16454,7 +16556,7 @@
         <v>6.3207230000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10000</v>
       </c>
@@ -16486,7 +16588,7 @@
         <v>6.8952070000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10000</v>
       </c>
@@ -16518,7 +16620,7 @@
         <v>7.4793099999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10000</v>
       </c>
@@ -16550,7 +16652,7 @@
         <v>8.0759659999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10000</v>
       </c>
@@ -16582,7 +16684,7 @@
         <v>8.6634080000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10000</v>
       </c>
@@ -16614,7 +16716,7 @@
         <v>9.2551939999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10000</v>
       </c>
@@ -16646,7 +16748,7 @@
         <v>9.8371879999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10000</v>
       </c>
@@ -16678,7 +16780,7 @@
         <v>10.425129999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10000</v>
       </c>
@@ -16719,63 +16821,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E00ECD-A7F0-4F59-996C-CB84C1720ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="L23" sqref="B2:L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="12" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="2:12" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>75</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -16801,7 +16903,7 @@
         <v>0.284555</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -16827,7 +16929,7 @@
         <v>0.75087499999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -16853,7 +16955,7 @@
         <v>1.263566</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -16879,7 +16981,7 @@
         <v>1.7908919999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -16905,7 +17007,7 @@
         <v>2.336138</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -16931,7 +17033,7 @@
         <v>2.8863910000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -16957,7 +17059,7 @@
         <v>3.4513250000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -16983,7 +17085,7 @@
         <v>4.0097829999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -17009,7 +17111,7 @@
         <v>4.5923879999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -17035,7 +17137,7 @@
         <v>5.168812</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -17061,7 +17163,7 @@
         <v>5.7352319999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -17087,7 +17189,7 @@
         <v>6.3207230000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -17113,7 +17215,7 @@
         <v>6.8952070000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -17139,7 +17241,7 @@
         <v>7.4793099999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -17165,7 +17267,7 @@
         <v>8.0759659999999993</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -17191,7 +17293,7 @@
         <v>8.6634080000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -17217,7 +17319,7 @@
         <v>9.2551939999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -17243,7 +17345,7 @@
         <v>9.8371879999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -17269,7 +17371,7 @@
         <v>10.425129999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>20</v>
       </c>
@@ -17306,84 +17408,92 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991769-C04A-4BF4-93B6-C031723EE8FC}">
-  <dimension ref="A1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G58"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40:J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0.6</v>
       </c>
-      <c r="F2" s="2">
-        <v>4.15E-4</v>
+      <c r="F2">
+        <v>3.7300000000000001E-4</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0</v>
       </c>
       <c r="J2" s="11">
-        <v>3.6141209999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5959120000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
@@ -17400,22 +17510,22 @@
         <v>0.6</v>
       </c>
       <c r="F3" s="2">
-        <v>3.9599999999999998E-4</v>
+        <v>4.0099999999999999E-4</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <v>3.5860400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5968589999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10000</v>
       </c>
@@ -17432,22 +17542,22 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="2">
-        <v>5.8600000000000004E-4</v>
+        <v>4.7899999999999999E-4</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
       </c>
       <c r="J4" s="11">
-        <v>3.6088840000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6057380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
@@ -17464,22 +17574,22 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="2">
-        <v>4.4700000000000002E-4</v>
+        <v>4.1599999999999997E-4</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
       </c>
       <c r="J5" s="11">
-        <v>3.599456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6031900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -17496,22 +17606,22 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="2">
-        <v>3.9199999999999999E-4</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0</v>
       </c>
       <c r="J6" s="11">
-        <v>3.606033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5885760000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10000</v>
       </c>
@@ -17528,22 +17638,22 @@
         <v>0.6</v>
       </c>
       <c r="F7" s="2">
-        <v>2.92E-4</v>
+        <v>2.6400000000000002E-4</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
       </c>
       <c r="J7" s="11">
-        <v>3.5934780000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6022780000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10000</v>
       </c>
@@ -17560,22 +17670,22 @@
         <v>0.6</v>
       </c>
       <c r="F8" s="2">
-        <v>4.08E-4</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>12</v>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0</v>
       </c>
       <c r="J8" s="11">
-        <v>3.5969449999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5976759999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10000</v>
       </c>
@@ -17592,22 +17702,22 @@
         <v>0.6</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5599999999999999E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0</v>
       </c>
       <c r="J9" s="11">
-        <v>3.6170939999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6036419999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10000</v>
       </c>
@@ -17624,22 +17734,22 @@
         <v>0.6</v>
       </c>
       <c r="F10" s="2">
-        <v>3.1399999999999999E-4</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0</v>
       </c>
       <c r="J10" s="11">
-        <v>3.5841669999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5859549999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10000</v>
       </c>
@@ -17656,7 +17766,7 @@
         <v>0.6</v>
       </c>
       <c r="F11" s="2">
-        <v>3.86E-4</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -17664,14 +17774,15 @@
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
+      <c r="I11" s="2" t="e">
+        <f t="shared" ref="I11:I16" si="0">-nan%</f>
+        <v>#NAME?</v>
       </c>
       <c r="J11" s="11">
-        <v>3.5954329999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.606814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10000</v>
       </c>
@@ -17688,7 +17799,7 @@
         <v>0.6</v>
       </c>
       <c r="F12" s="2">
-        <v>3.7800000000000003E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -17696,14 +17807,15 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>14</v>
+      <c r="I12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J12" s="11">
-        <v>3.6022449999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5881799999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10000</v>
       </c>
@@ -17720,7 +17832,7 @@
         <v>0.6</v>
       </c>
       <c r="F13" s="2">
-        <v>6.9099999999999999E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -17728,14 +17840,15 @@
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
+      <c r="I13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J13" s="11">
-        <v>3.6047009999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5972590000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10000</v>
       </c>
@@ -17752,7 +17865,7 @@
         <v>0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>4.6700000000000002E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -17760,14 +17873,15 @@
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
+      <c r="I14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J14" s="11">
-        <v>3.5980340000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.597944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
@@ -17784,7 +17898,7 @@
         <v>0.6</v>
       </c>
       <c r="F15" s="2">
-        <v>2.8200000000000002E-4</v>
+        <v>3.97E-4</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -17792,14 +17906,15 @@
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
+      <c r="I15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J15" s="11">
-        <v>3.6050930000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6006140000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10000</v>
       </c>
@@ -17816,7 +17931,7 @@
         <v>0.6</v>
       </c>
       <c r="F16" s="2">
-        <v>5.2700000000000002E-4</v>
+        <v>2.9500000000000001E-4</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -17824,14 +17939,15 @@
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
+      <c r="I16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="J16" s="11">
-        <v>3.592231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.581404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10000</v>
       </c>
@@ -17848,7 +17964,7 @@
         <v>0.6</v>
       </c>
       <c r="F17" s="2">
-        <v>4.3800000000000002E-4</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -17860,10 +17976,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="11">
-        <v>3.5847020000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.593054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10000</v>
       </c>
@@ -17880,7 +17996,7 @@
         <v>0.6</v>
       </c>
       <c r="F18" s="2">
-        <v>4.37E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -17892,10 +18008,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="11">
-        <v>3.5936789999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6043059999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10000</v>
       </c>
@@ -17912,7 +18028,7 @@
         <v>0.6</v>
       </c>
       <c r="F19" s="2">
-        <v>2.1599999999999999E-4</v>
+        <v>3.5399999999999999E-4</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -17924,10 +18040,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="11">
-        <v>3.589264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.6038939999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10000</v>
       </c>
@@ -17944,7 +18060,7 @@
         <v>0.6</v>
       </c>
       <c r="F20" s="2">
-        <v>2.4499999999999999E-4</v>
+        <v>3.3399999999999999E-4</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -17956,42 +18072,42 @@
         <v>16</v>
       </c>
       <c r="J20" s="11">
-        <v>3.6010499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10000</v>
-      </c>
-      <c r="B21">
+        <v>3.5973009999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.6</v>
       </c>
-      <c r="F21">
-        <v>4.46E-4</v>
+      <c r="F21" s="2">
+        <v>3.19E-4</v>
       </c>
       <c r="G21" s="8">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>77</v>
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1.9148699999999999E-3</v>
       </c>
       <c r="J21" s="11">
-        <v>3.5885539999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5929700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -18008,22 +18124,22 @@
         <v>0.6</v>
       </c>
       <c r="F22">
-        <v>3.5199999999999999E-4</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="G22" s="8">
-        <v>0.9597</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>0.9617</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1.7830999999999999E-4</v>
       </c>
       <c r="J22" s="11">
-        <v>3.575399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5792570000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -18040,22 +18156,22 @@
         <v>0.6</v>
       </c>
       <c r="F23">
-        <v>3.6499999999999998E-4</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="G23" s="8">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>81</v>
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="I23" s="23">
+        <v>6.7735E-3</v>
       </c>
       <c r="J23" s="11">
-        <v>3.5647609999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5756209999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -18072,22 +18188,22 @@
         <v>0.6</v>
       </c>
       <c r="F24">
-        <v>3.2499999999999999E-4</v>
+        <v>5.4900000000000001E-4</v>
       </c>
       <c r="G24" s="8">
         <v>0.93079999999999996</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
+      <c r="H24" s="2">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="I24" s="23">
+        <v>2.8871000000000002E-4</v>
       </c>
       <c r="J24" s="11">
-        <v>3.558557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5582880000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10000</v>
       </c>
@@ -18104,22 +18220,22 @@
         <v>0.6</v>
       </c>
       <c r="F25">
-        <v>2.8499999999999999E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="G25" s="8">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I25" s="23">
+        <v>2.5671600000000002E-3</v>
       </c>
       <c r="J25" s="11">
-        <v>3.5580639999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.558557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -18136,22 +18252,22 @@
         <v>0.6</v>
       </c>
       <c r="F26">
-        <v>2.9700000000000001E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="G26" s="8">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="I26" s="23">
+        <v>3.4508099999999999E-3</v>
       </c>
       <c r="J26" s="11">
-        <v>3.5989610000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5316749999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000</v>
       </c>
@@ -18168,22 +18284,22 @@
         <v>0.6</v>
       </c>
       <c r="F27">
-        <v>2.8499999999999999E-4</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="G27" s="8">
-        <v>0.89049999999999996</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="I27" s="23">
+        <v>4.5252799999999996E-3</v>
       </c>
       <c r="J27" s="11">
-        <v>3.5305569999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.52915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -18200,22 +18316,22 @@
         <v>0.6</v>
       </c>
       <c r="F28">
-        <v>3.3700000000000001E-4</v>
+        <v>3.6499999999999998E-4</v>
       </c>
       <c r="G28" s="8">
-        <v>0.8851</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>89</v>
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="I28" s="23">
+        <v>2.13562E-3</v>
       </c>
       <c r="J28" s="11">
-        <v>3.5101960000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.52915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -18232,22 +18348,22 @@
         <v>0.6</v>
       </c>
       <c r="F29">
-        <v>2.3699999999999999E-4</v>
+        <v>2.6699999999999998E-4</v>
       </c>
       <c r="G29" s="8">
-        <v>0.86809999999999998</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>91</v>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="I29" s="23">
+        <v>1.0161679999999999E-2</v>
       </c>
       <c r="J29" s="11">
-        <v>3.5186289999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5341960000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -18264,22 +18380,23 @@
         <v>0.6</v>
       </c>
       <c r="F30">
-        <v>2.9799999999999998E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="G30" s="8">
-        <v>0.86319999999999997</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>14</v>
+      <c r="I30" s="2" t="e">
+        <f>-nan%</f>
+        <v>#NAME?</v>
       </c>
       <c r="J30" s="11">
-        <v>3.512699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5104679999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10000</v>
       </c>
@@ -18296,10 +18413,10 @@
         <v>0.6</v>
       </c>
       <c r="F31">
-        <v>4.1599999999999997E-4</v>
+        <v>2.6400000000000002E-4</v>
       </c>
       <c r="G31" s="8">
-        <v>0.85460000000000003</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>15</v>
@@ -18308,10 +18425,10 @@
         <v>16</v>
       </c>
       <c r="J31" s="11">
-        <v>3.5004430000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5132560000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -18328,10 +18445,10 @@
         <v>0.6</v>
       </c>
       <c r="F32">
-        <v>2.5999999999999998E-4</v>
+        <v>3.6499999999999998E-4</v>
       </c>
       <c r="G32" s="8">
-        <v>0.84119999999999995</v>
+        <v>0.84430000000000005</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
@@ -18340,10 +18457,10 @@
         <v>16</v>
       </c>
       <c r="J32" s="11">
-        <v>3.4898669999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.499822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10000</v>
       </c>
@@ -18360,10 +18477,10 @@
         <v>0.6</v>
       </c>
       <c r="F33">
-        <v>2.0699999999999999E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="G33" s="8">
-        <v>0.83260000000000001</v>
+        <v>0.83189999999999997</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -18372,10 +18489,10 @@
         <v>16</v>
       </c>
       <c r="J33" s="11">
-        <v>3.4941610000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.477614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10000</v>
       </c>
@@ -18392,10 +18509,10 @@
         <v>0.6</v>
       </c>
       <c r="F34">
-        <v>3.6499999999999998E-4</v>
+        <v>3.7300000000000001E-4</v>
       </c>
       <c r="G34" s="8">
-        <v>0.82330000000000003</v>
+        <v>0.82489999999999997</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>15</v>
@@ -18404,10 +18521,10 @@
         <v>16</v>
       </c>
       <c r="J34" s="11">
-        <v>3.4938470000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4802200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -18424,10 +18541,10 @@
         <v>0.6</v>
       </c>
       <c r="F35">
-        <v>5.1099999999999995E-4</v>
+        <v>5.8900000000000001E-4</v>
       </c>
       <c r="G35" s="8">
-        <v>0.81940000000000002</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>15</v>
@@ -18436,10 +18553,10 @@
         <v>16</v>
       </c>
       <c r="J35" s="11">
-        <v>3.4958979999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4866389999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -18456,10 +18573,10 @@
         <v>0.6</v>
       </c>
       <c r="F36">
-        <v>3.3700000000000001E-4</v>
+        <v>2.9100000000000003E-4</v>
       </c>
       <c r="G36" s="8">
-        <v>0.81079999999999997</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
@@ -18468,10 +18585,10 @@
         <v>16</v>
       </c>
       <c r="J36" s="11">
-        <v>3.4719600000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4763890000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10000</v>
       </c>
@@ -18488,10 +18605,10 @@
         <v>0.6</v>
       </c>
       <c r="F37">
-        <v>3.5599999999999998E-4</v>
+        <v>4.06E-4</v>
       </c>
       <c r="G37" s="8">
-        <v>0.80930000000000002</v>
+        <v>0.80369999999999997</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
@@ -18500,10 +18617,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="11">
-        <v>3.4788420000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4831120000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10000</v>
       </c>
@@ -18520,10 +18637,10 @@
         <v>0.6</v>
       </c>
       <c r="F38">
-        <v>2.5599999999999999E-4</v>
+        <v>2.72E-4</v>
       </c>
       <c r="G38" s="8">
-        <v>0.79890000000000005</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>15</v>
@@ -18532,10 +18649,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="11">
-        <v>3.466316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4646889999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10000</v>
       </c>
@@ -18552,10 +18669,10 @@
         <v>0.6</v>
       </c>
       <c r="F39">
-        <v>4.1199999999999999E-4</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="G39" s="8">
-        <v>0.79420000000000002</v>
+        <v>0.7893</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
@@ -18564,10 +18681,10 @@
         <v>16</v>
       </c>
       <c r="J39" s="11">
-        <v>3.4601139999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.4458790000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10000</v>
       </c>
@@ -18584,22 +18701,22 @@
         <v>0.6</v>
       </c>
       <c r="F40">
-        <v>3.8299999999999999E-4</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="G40" s="8">
-        <v>0.62470000000000003</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>93</v>
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="I40" s="23">
+        <v>2.1309900000000001E-3</v>
       </c>
       <c r="J40" s="11">
-        <v>3.2737449999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.2709350000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10000</v>
       </c>
@@ -18616,22 +18733,22 @@
         <v>0.6</v>
       </c>
       <c r="F41">
-        <v>3.9300000000000001E-4</v>
+        <v>2.42E-4</v>
       </c>
       <c r="G41" s="8">
-        <v>0.46429999999999999</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>95</v>
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="I41" s="23">
+        <v>8.1799999999999998E-3</v>
       </c>
       <c r="J41" s="11">
-        <v>3.0884239999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.0957949999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10000</v>
       </c>
@@ -18648,22 +18765,22 @@
         <v>0.6</v>
       </c>
       <c r="F42">
-        <v>2.4000000000000001E-4</v>
+        <v>3.4900000000000003E-4</v>
       </c>
       <c r="G42" s="8">
-        <v>0.37669999999999998</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>97</v>
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="I42" s="23">
+        <v>1.0471690000000001E-2</v>
       </c>
       <c r="J42" s="11">
-        <v>2.982672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.9807769999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -18680,22 +18797,22 @@
         <v>0.6</v>
       </c>
       <c r="F43">
-        <v>3.5399999999999999E-4</v>
+        <v>3.2899999999999997E-4</v>
       </c>
       <c r="G43" s="8">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>98</v>
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="I43" s="23">
+        <v>9.8604999999999995E-3</v>
       </c>
       <c r="J43" s="11">
-        <v>2.888744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.893049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10000</v>
       </c>
@@ -18712,22 +18829,22 @@
         <v>0.6</v>
       </c>
       <c r="F44">
-        <v>4.64E-4</v>
+        <v>3.4699999999999998E-4</v>
       </c>
       <c r="G44" s="8">
-        <v>0.26679999999999998</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>100</v>
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="I44" s="23">
+        <v>1.3603000000000001E-4</v>
       </c>
       <c r="J44" s="11">
-        <v>2.8260640000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.8165149999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10000</v>
       </c>
@@ -18744,22 +18861,22 @@
         <v>0.6</v>
       </c>
       <c r="F45">
-        <v>3.6200000000000002E-4</v>
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="G45" s="8">
-        <v>0.24010000000000001</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>102</v>
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.2382</v>
+      </c>
+      <c r="I45" s="23">
+        <v>2.185819E-2</v>
       </c>
       <c r="J45" s="11">
-        <v>2.7723309999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.772608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10000</v>
       </c>
@@ -18776,22 +18893,22 @@
         <v>0.6</v>
       </c>
       <c r="F46">
-        <v>5.0199999999999995E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="G46" s="8">
-        <v>0.2064</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>104</v>
+        <v>0.218</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.2137</v>
+      </c>
+      <c r="I46" s="23">
+        <v>2.0051349999999999E-2</v>
       </c>
       <c r="J46" s="11">
-        <v>2.7235839999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.724253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10000</v>
       </c>
@@ -18808,22 +18925,22 @@
         <v>0.6</v>
       </c>
       <c r="F47">
-        <v>2.4499999999999999E-4</v>
+        <v>3.6099999999999999E-4</v>
       </c>
       <c r="G47" s="8">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>106</v>
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="I47" s="23">
+        <v>2.2806440000000001E-2</v>
       </c>
       <c r="J47" s="11">
-        <v>2.682585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.6833469999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10000</v>
       </c>
@@ -18840,22 +18957,22 @@
         <v>0.6</v>
       </c>
       <c r="F48">
-        <v>4.1199999999999999E-4</v>
+        <v>3.9899999999999999E-4</v>
       </c>
       <c r="G48" s="8">
-        <v>0.17879999999999999</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>108</v>
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.1779</v>
+      </c>
+      <c r="I48" s="23">
+        <v>5.710817E-2</v>
       </c>
       <c r="J48" s="11">
-        <v>2.645486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.6461039999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10000</v>
       </c>
@@ -18872,10 +18989,10 @@
         <v>0.6</v>
       </c>
       <c r="F49">
-        <v>4.4499999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G49" s="8">
-        <v>0.16839999999999999</v>
+        <v>0.1636</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>15</v>
@@ -18884,10 +19001,10 @@
         <v>16</v>
       </c>
       <c r="J49" s="11">
-        <v>2.6091350000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.615389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10000</v>
       </c>
@@ -18904,10 +19021,10 @@
         <v>0.6</v>
       </c>
       <c r="F50">
-        <v>3.19E-4</v>
+        <v>3.4099999999999999E-4</v>
       </c>
       <c r="G50" s="8">
-        <v>0.15290000000000001</v>
+        <v>0.1535</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>15</v>
@@ -18916,10 +19033,10 @@
         <v>16</v>
       </c>
       <c r="J50" s="11">
-        <v>2.578157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.587974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -18936,10 +19053,10 @@
         <v>0.6</v>
       </c>
       <c r="F51">
-        <v>6.6600000000000003E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="G51" s="8">
-        <v>0.14080000000000001</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>15</v>
@@ -18948,10 +19065,10 @@
         <v>16</v>
       </c>
       <c r="J51" s="11">
-        <v>2.5588769999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5569109999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10000</v>
       </c>
@@ -18968,10 +19085,10 @@
         <v>0.6</v>
       </c>
       <c r="F52">
-        <v>2.3900000000000001E-4</v>
+        <v>3.7399999999999998E-4</v>
       </c>
       <c r="G52" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.14030000000000001</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>15</v>
@@ -18980,10 +19097,10 @@
         <v>16</v>
       </c>
       <c r="J52" s="11">
-        <v>2.5364879999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5362390000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10000</v>
       </c>
@@ -19000,10 +19117,10 @@
         <v>0.6</v>
       </c>
       <c r="F53">
-        <v>3.39E-4</v>
+        <v>3.01E-4</v>
       </c>
       <c r="G53" s="8">
-        <v>0.1203</v>
+        <v>0.1236</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>15</v>
@@ -19012,10 +19129,10 @@
         <v>16</v>
       </c>
       <c r="J53" s="11">
-        <v>2.5171169999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5121540000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10000</v>
       </c>
@@ -19032,10 +19149,10 @@
         <v>0.6</v>
       </c>
       <c r="F54">
-        <v>3.5199999999999999E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="G54" s="8">
-        <v>0.11940000000000001</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>15</v>
@@ -19044,10 +19161,10 @@
         <v>16</v>
       </c>
       <c r="J54" s="11">
-        <v>2.4883739999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.4974729999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10000</v>
       </c>
@@ -19064,10 +19181,10 @@
         <v>0.6</v>
       </c>
       <c r="F55">
-        <v>2.3599999999999999E-4</v>
+        <v>2.1100000000000001E-4</v>
       </c>
       <c r="G55" s="8">
-        <v>0.11609999999999999</v>
+        <v>0.1153</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>15</v>
@@ -19076,10 +19193,10 @@
         <v>16</v>
       </c>
       <c r="J55" s="11">
-        <v>2.4753919999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.47506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10000</v>
       </c>
@@ -19096,10 +19213,10 @@
         <v>0.6</v>
       </c>
       <c r="F56">
-        <v>3.8499999999999998E-4</v>
+        <v>4.0499999999999998E-4</v>
       </c>
       <c r="G56" s="8">
-        <v>0.1157</v>
+        <v>0.1115</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>15</v>
@@ -19108,10 +19225,10 @@
         <v>16</v>
       </c>
       <c r="J56" s="11">
-        <v>2.459457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.4562949999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10000</v>
       </c>
@@ -19128,7 +19245,7 @@
         <v>0.6</v>
       </c>
       <c r="F57">
-        <v>4.4000000000000002E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="G57" s="8">
         <v>0.1017</v>
@@ -19140,10 +19257,10 @@
         <v>16</v>
       </c>
       <c r="J57" s="11">
-        <v>2.4432670000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.443708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10000</v>
       </c>
@@ -19160,10 +19277,10 @@
         <v>0.6</v>
       </c>
       <c r="F58">
-        <v>2.3499999999999999E-4</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="G58" s="8">
-        <v>0.1004</v>
+        <v>0.1032</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>15</v>
@@ -19172,585 +19289,590 @@
         <v>16</v>
       </c>
       <c r="J58" s="11">
-        <v>2.431292</v>
-      </c>
+        <v>2.4263020000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="8"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2994651-3F99-44F3-A52F-38EC23306318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>75</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.62470000000000003</v>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.62450000000000006</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
-        <v>3.6141209999999999</v>
-      </c>
-      <c r="K5" s="13">
-        <v>3.5885539999999998</v>
-      </c>
-      <c r="L5" s="12">
-        <v>3.2737449999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="11">
+        <v>3.5959120000000002</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3.5929700000000002</v>
+      </c>
+      <c r="L5" s="11">
+        <v>3.2709350000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.9597</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.46429999999999999</v>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.9617</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.46610000000000001</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="13">
-        <v>3.5860400000000001</v>
-      </c>
-      <c r="K6" s="12">
-        <v>3.575399</v>
-      </c>
-      <c r="L6" s="13">
-        <v>3.0884239999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="11">
+        <v>3.5968589999999998</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3.5792570000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3.0957949999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.37669999999999998</v>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.36720000000000003</v>
       </c>
       <c r="I7" s="4">
         <v>4</v>
       </c>
-      <c r="J7" s="12">
-        <v>3.6088840000000002</v>
-      </c>
-      <c r="K7" s="13">
-        <v>3.5647609999999998</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2.982672</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="11">
+        <v>3.6057380000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3.5756209999999999</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.9807769999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.93079999999999996</v>
       </c>
-      <c r="E8" s="10">
-        <v>0.31130000000000002</v>
+      <c r="E8" s="8">
+        <v>0.30859999999999999</v>
       </c>
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="13">
-        <v>3.599456</v>
-      </c>
-      <c r="K8" s="12">
-        <v>3.558557</v>
-      </c>
-      <c r="L8" s="13">
-        <v>2.888744</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="11">
+        <v>3.6031900000000001</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3.5582880000000001</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2.893049</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.26679999999999998</v>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.26960000000000001</v>
       </c>
       <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="12">
-        <v>3.606033</v>
-      </c>
-      <c r="K9" s="13">
-        <v>3.5580639999999999</v>
-      </c>
-      <c r="L9" s="12">
-        <v>2.8260640000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J9" s="11">
+        <v>3.5885760000000002</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3.558557</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.8165149999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.24010000000000001</v>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.24340000000000001</v>
       </c>
       <c r="I10" s="3">
         <v>7</v>
       </c>
-      <c r="J10" s="13">
-        <v>3.5934780000000002</v>
-      </c>
-      <c r="K10" s="12">
-        <v>3.5989610000000001</v>
-      </c>
-      <c r="L10" s="13">
-        <v>2.7723309999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="11">
+        <v>3.6022780000000001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3.5316749999999999</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2.772608</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.89049999999999996</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.2064</v>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.218</v>
       </c>
       <c r="I11" s="4">
         <v>8</v>
       </c>
-      <c r="J11" s="12">
-        <v>3.5969449999999998</v>
-      </c>
-      <c r="K11" s="13">
-        <v>3.5305569999999999</v>
-      </c>
-      <c r="L11" s="12">
-        <v>2.7235839999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>3.5976759999999999</v>
+      </c>
+      <c r="K11" s="11">
+        <v>3.52915</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2.724253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.8851</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.19159999999999999</v>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.19850000000000001</v>
       </c>
       <c r="I12" s="3">
         <v>9</v>
       </c>
-      <c r="J12" s="13">
-        <v>3.6170939999999998</v>
-      </c>
-      <c r="K12" s="12">
-        <v>3.5101960000000001</v>
-      </c>
-      <c r="L12" s="13">
-        <v>2.682585</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="11">
+        <v>3.6036419999999998</v>
+      </c>
+      <c r="K12" s="11">
+        <v>3.52915</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2.6833469999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.86809999999999998</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.17879999999999999</v>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.18809999999999999</v>
       </c>
       <c r="I13" s="4">
         <v>10</v>
       </c>
-      <c r="J13" s="12">
-        <v>3.5841669999999999</v>
-      </c>
-      <c r="K13" s="13">
-        <v>3.5186289999999998</v>
-      </c>
-      <c r="L13" s="12">
-        <v>2.645486</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="11">
+        <v>3.5859549999999998</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3.5341960000000001</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2.6461039999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.16839999999999999</v>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.1636</v>
       </c>
       <c r="I14" s="3">
         <v>11</v>
       </c>
-      <c r="J14" s="13">
-        <v>3.5954329999999999</v>
-      </c>
-      <c r="K14" s="12">
-        <v>3.512699</v>
-      </c>
-      <c r="L14" s="13">
-        <v>2.6091350000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="11">
+        <v>3.606814</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3.5104679999999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2.615389</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.85460000000000003</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.15290000000000001</v>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.1535</v>
       </c>
       <c r="I15" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="12">
-        <v>3.6022449999999999</v>
-      </c>
-      <c r="K15" s="13">
-        <v>3.5004430000000002</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.578157</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="11">
+        <v>3.5881799999999999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>3.5132560000000002</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2.587974</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.84119999999999995</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.14080000000000001</v>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.14230000000000001</v>
       </c>
       <c r="I16" s="3">
         <v>13</v>
       </c>
-      <c r="J16" s="13">
-        <v>3.6047009999999999</v>
-      </c>
-      <c r="K16" s="12">
-        <v>3.4898669999999998</v>
-      </c>
-      <c r="L16" s="13">
-        <v>2.5588769999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="11">
+        <v>3.5972590000000002</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3.499822</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2.5569109999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.83260000000000001</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.13600000000000001</v>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.14030000000000001</v>
       </c>
       <c r="I17" s="4">
         <v>14</v>
       </c>
-      <c r="J17" s="12">
-        <v>3.5980340000000002</v>
-      </c>
-      <c r="K17" s="13">
-        <v>3.4941610000000001</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2.5364879999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>3.597944</v>
+      </c>
+      <c r="K17" s="11">
+        <v>3.477614</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2.5362390000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.82330000000000003</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.1203</v>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.1236</v>
       </c>
       <c r="I18" s="3">
         <v>15</v>
       </c>
-      <c r="J18" s="13">
-        <v>3.6050930000000001</v>
-      </c>
-      <c r="K18" s="12">
-        <v>3.4938470000000001</v>
-      </c>
-      <c r="L18" s="13">
-        <v>2.5171169999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="11">
+        <v>3.6006140000000002</v>
+      </c>
+      <c r="K18" s="11">
+        <v>3.4802200000000001</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2.5121540000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.81940000000000002</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.11940000000000001</v>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.12429999999999999</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="12">
-        <v>3.592231</v>
-      </c>
-      <c r="K19" s="13">
-        <v>3.4958979999999999</v>
-      </c>
-      <c r="L19" s="12">
-        <v>2.4883739999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="11">
+        <v>3.581404</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3.4866389999999998</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2.4974729999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.81079999999999997</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.11609999999999999</v>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.1153</v>
       </c>
       <c r="I20" s="3">
         <v>17</v>
       </c>
-      <c r="J20" s="13">
-        <v>3.5847020000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <v>3.4719600000000002</v>
-      </c>
-      <c r="L20" s="13">
-        <v>2.4753919999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="11">
+        <v>3.593054</v>
+      </c>
+      <c r="K20" s="11">
+        <v>3.4763890000000002</v>
+      </c>
+      <c r="L20" s="11">
+        <v>2.47506</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.80930000000000002</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.1157</v>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.1115</v>
       </c>
       <c r="I21" s="4">
         <v>18</v>
       </c>
-      <c r="J21" s="12">
-        <v>3.5936789999999998</v>
-      </c>
-      <c r="K21" s="13">
-        <v>3.4788420000000002</v>
-      </c>
-      <c r="L21" s="12">
-        <v>2.459457</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="11">
+        <v>3.6043059999999998</v>
+      </c>
+      <c r="K21" s="11">
+        <v>3.4831120000000002</v>
+      </c>
+      <c r="L21" s="11">
+        <v>2.4562949999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="E22" s="8">
         <v>0.1017</v>
       </c>
       <c r="I22" s="3">
         <v>19</v>
       </c>
-      <c r="J22" s="13">
-        <v>3.589264</v>
-      </c>
-      <c r="K22" s="12">
-        <v>3.466316</v>
-      </c>
-      <c r="L22" s="13">
-        <v>2.4432670000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="11">
+        <v>3.6038939999999999</v>
+      </c>
+      <c r="K22" s="11">
+        <v>3.4646889999999999</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2.443708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.79420000000000002</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.1004</v>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.7893</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.1032</v>
       </c>
       <c r="I23" s="5">
         <v>20</v>
       </c>
-      <c r="J23" s="12">
-        <v>3.6010499999999999</v>
-      </c>
-      <c r="K23" s="13">
-        <v>3.4601139999999999</v>
-      </c>
-      <c r="L23" s="12">
-        <v>2.431292</v>
+      <c r="J23" s="11">
+        <v>3.5973009999999999</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3.4458790000000001</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2.4263020000000002</v>
       </c>
     </row>
   </sheetData>
@@ -19760,6 +19882,763 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="B23:U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>3.5959120000000002</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3.5968589999999998</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3.6057380000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3.6031900000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.5885760000000002</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3.6022780000000001</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3.5976759999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.6036419999999998</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3.5859549999999998</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3.606814</v>
+      </c>
+      <c r="L3" s="11">
+        <v>3.5881799999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <v>3.5972590000000002</v>
+      </c>
+      <c r="N3" s="11">
+        <v>3.597944</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3.6006140000000002</v>
+      </c>
+      <c r="P3" s="11">
+        <v>3.581404</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>3.593054</v>
+      </c>
+      <c r="R3" s="11">
+        <v>3.6043059999999998</v>
+      </c>
+      <c r="S3" s="11">
+        <v>3.6038939999999999</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3.5973009999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>3.5929700000000002</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.5792570000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3.5756209999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3.5582880000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3.558557</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3.5316749999999999</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3.52915</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3.52915</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3.5341960000000001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3.5104679999999999</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3.5132560000000002</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3.499822</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3.477614</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3.4802200000000001</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3.4866389999999998</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3.4763890000000002</v>
+      </c>
+      <c r="R4" s="11">
+        <v>3.4831120000000002</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3.4646889999999999</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3.4458790000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>3.2709350000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3.0957949999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.9807769999999998</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.893049</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.8165149999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.772608</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.724253</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2.6833469999999999</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.6461039999999998</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2.615389</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2.587974</v>
+      </c>
+      <c r="M5" s="11">
+        <v>2.5569109999999999</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2.5362390000000001</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2.5121540000000002</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.4974729999999998</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2.47506</v>
+      </c>
+      <c r="R5" s="11">
+        <v>2.4562949999999999</v>
+      </c>
+      <c r="S5" s="11">
+        <v>2.443708</v>
+      </c>
+      <c r="T5" s="11">
+        <v>2.4263020000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.9617</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.1636</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.1535</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.1236</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.1153</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.1115</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.1017</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>0.58710399999999996</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.204088</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.79878</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2.4022760000000001</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.0006930000000001</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3.586014</v>
+      </c>
+      <c r="H16" s="12">
+        <v>4.1823949999999996</v>
+      </c>
+      <c r="I16" s="13">
+        <v>4.7914250000000003</v>
+      </c>
+      <c r="J16" s="12">
+        <v>5.3936900000000003</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5.9583539999999999</v>
+      </c>
+      <c r="L16" s="12">
+        <v>6.5963219999999998</v>
+      </c>
+      <c r="M16" s="13">
+        <v>7.2054919999999996</v>
+      </c>
+      <c r="N16" s="12">
+        <v>7.807874</v>
+      </c>
+      <c r="O16" s="13">
+        <v>8.4152780000000007</v>
+      </c>
+      <c r="P16" s="12">
+        <v>9.0118089999999995</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>9.6066109999999991</v>
+      </c>
+      <c r="R16" s="12">
+        <v>10.216882</v>
+      </c>
+      <c r="S16" s="13">
+        <v>10.839684999999999</v>
+      </c>
+      <c r="T16" s="12">
+        <v>11.415692</v>
+      </c>
+      <c r="U16" s="13">
+        <v>11.984963</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>0.419041</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.043628</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.6875249999999999</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.310632</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2.9343940000000002</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3.5569980000000001</v>
+      </c>
+      <c r="H17" s="12">
+        <v>4.170604</v>
+      </c>
+      <c r="I17" s="13">
+        <v>4.7672800000000004</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5.3842809999999997</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5.9853170000000002</v>
+      </c>
+      <c r="L17" s="12">
+        <v>6.5918619999999999</v>
+      </c>
+      <c r="M17" s="13">
+        <v>7.2187789999999996</v>
+      </c>
+      <c r="N17" s="12">
+        <v>7.8073600000000001</v>
+      </c>
+      <c r="O17" s="13">
+        <v>8.3982170000000007</v>
+      </c>
+      <c r="P17" s="12">
+        <v>8.9992769999999993</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>9.6248430000000003</v>
+      </c>
+      <c r="R17" s="12">
+        <v>10.209322</v>
+      </c>
+      <c r="S17" s="13">
+        <v>10.801453</v>
+      </c>
+      <c r="T17" s="12">
+        <v>11.404491999999999</v>
+      </c>
+      <c r="U17" s="13">
+        <v>12.025180000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>0.284555</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.75087499999999996</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1.263566</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1.7908919999999999</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2.336138</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2.8863910000000002</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3.4513250000000002</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4.0097829999999997</v>
+      </c>
+      <c r="J18" s="12">
+        <v>4.5923879999999997</v>
+      </c>
+      <c r="K18" s="13">
+        <v>5.168812</v>
+      </c>
+      <c r="L18" s="12">
+        <v>5.7352319999999999</v>
+      </c>
+      <c r="M18" s="13">
+        <v>6.3207230000000001</v>
+      </c>
+      <c r="N18" s="12">
+        <v>6.8952070000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <v>7.4793099999999999</v>
+      </c>
+      <c r="P18" s="12">
+        <v>8.0759659999999993</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>8.6634080000000004</v>
+      </c>
+      <c r="R18" s="12">
+        <v>9.2551939999999995</v>
+      </c>
+      <c r="S18" s="13">
+        <v>9.8371879999999994</v>
+      </c>
+      <c r="T18" s="12">
+        <v>10.425129999999999</v>
+      </c>
+      <c r="U18" s="13">
+        <v>11.043345</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>0.9758</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.2908</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0.4274</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0.4204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
